--- a/biology/Botanique/Salvia_elegans/Salvia_elegans.xlsx
+++ b/biology/Botanique/Salvia_elegans/Salvia_elegans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Sauge ananas (Salvia elegans) est une plante vivace de la famille des Lamiacées, du genre des sauges, originaire du Mexique[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Sauge ananas (Salvia elegans) est une plante vivace de la famille des Lamiacées, du genre des sauges, originaire du Mexique.
 </t>
         </is>
       </c>
@@ -513,10 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-La Sauge ananas est une plante arbustive vivace haute jusqu'à 2 m[2]. La tige carré est d'une couleur légèrement pourprée et pourvue de poils. Les  feuilles, vert clair, dentées et velues, sont de 5 à 10 cm de long[3].
-Appareil reproducteur
-Les fleurs sont rouges et tubulaires[3].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Sauge ananas est une plante arbustive vivace haute jusqu'à 2 m. La tige carré est d'une couleur légèrement pourprée et pourvue de poils. Les  feuilles, vert clair, dentées et velues, sont de 5 à 10 cm de long.
 </t>
         </is>
       </c>
@@ -542,15 +557,92 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs sont rouges et tubulaires.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Salvia_elegans</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Salvia_elegans</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Médicales
-La Sauge ananas est utilisée comme plante digestive, comme stimulant hormonal, comme tonique et nerveux, comme hypoglycémiante, comme antipérissante et comme anti-inflammatoire[3].
-Alimentaire
-La Sauge ananas est utilisée pour son parfum qui rappelle l'ananas afin d'aromatiser des recettes de cuisine exotique[1],[2],[3].
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Médicales</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Sauge ananas est utilisée comme plante digestive, comme stimulant hormonal, comme tonique et nerveux, comme hypoglycémiante, comme antipérissante et comme anti-inflammatoire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Salvia_elegans</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Salvia_elegans</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Alimentaire</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Sauge ananas est utilisée pour son parfum qui rappelle l'ananas afin d'aromatiser des recettes de cuisine exotique.
 </t>
         </is>
       </c>
